--- a/metrics/API_providers/deepinfra_llama31_8b.xlsx
+++ b/metrics/API_providers/deepinfra_llama31_8b.xlsx
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.602998971939087</v>
+        <v>6.573738813400269</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>56.97236212129398</v>
+        <v>46.21379449207151</v>
       </c>
       <c r="C3" t="n">
-        <v>2.27686333656311</v>
+        <v>0.5159626007080078</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>44.97287455128674</v>
+        <v>47.97503511628037</v>
       </c>
       <c r="C4" t="n">
-        <v>1.464672565460205</v>
+        <v>0.5184140205383301</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>54.26166705308875</v>
+        <v>50.45572812713625</v>
       </c>
       <c r="C5" t="n">
-        <v>1.24114990234375</v>
+        <v>1.328382730484009</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>55.62473918440955</v>
+        <v>51.05405123080877</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4727249145507812</v>
+        <v>0.6259064674377441</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>56.91432617652742</v>
+        <v>42.55393320168726</v>
       </c>
       <c r="C7" t="n">
-        <v>7.250395536422729</v>
+        <v>0.285731315612793</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>57.16720764048702</v>
+        <v>50.03997322183892</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8540103435516357</v>
+        <v>4.751033067703247</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>62.23260202567094</v>
+        <v>54.44993718892647</v>
       </c>
       <c r="C9" t="n">
-        <v>1.069208145141602</v>
+        <v>0.5400347709655762</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>62.8699173601826</v>
+        <v>56.72814392443234</v>
       </c>
       <c r="C10" t="n">
-        <v>3.072066783905029</v>
+        <v>2.037423849105835</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>60.60501543397768</v>
+        <v>51.05067765831183</v>
       </c>
       <c r="C11" t="n">
-        <v>3.747438907623291</v>
+        <v>2.064325571060181</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>62.19564281904221</v>
+        <v>56.79145937265675</v>
       </c>
       <c r="C12" t="n">
-        <v>4.267761468887329</v>
+        <v>0.5770518779754639</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>63.07092582255722</v>
+        <v>53.4907754017446</v>
       </c>
       <c r="C13" t="n">
-        <v>6.468622922897339</v>
+        <v>0.5931999683380127</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>66.49447657066865</v>
+        <v>55.68284713495954</v>
       </c>
       <c r="C14" t="n">
-        <v>1.32538366317749</v>
+        <v>1.632748603820801</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>68.9062010056215</v>
+        <v>56.73274442066719</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7464802265167236</v>
+        <v>1.081955671310425</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>68.9338764204501</v>
+        <v>54.86779583080838</v>
       </c>
       <c r="C16" t="n">
-        <v>3.915517330169678</v>
+        <v>1.023508310317993</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>67.86370921304665</v>
+        <v>55.62482684027468</v>
       </c>
       <c r="C17" t="n">
-        <v>0.569319486618042</v>
+        <v>0.4066169261932373</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>66.24538799025365</v>
+        <v>52.36048565316132</v>
       </c>
       <c r="C18" t="n">
-        <v>1.080000638961792</v>
+        <v>5.647714376449585</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>67.01310014684718</v>
+        <v>53.14884351182541</v>
       </c>
       <c r="C19" t="n">
-        <v>1.364538669586182</v>
+        <v>1.793660640716553</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>67.52944868941287</v>
+        <v>54.28941988111436</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4634437561035156</v>
+        <v>3.295897960662842</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>64.15353769548503</v>
+        <v>53.08515762774745</v>
       </c>
       <c r="C21" t="n">
-        <v>4.407149314880371</v>
+        <v>0.3397445678710938</v>
       </c>
     </row>
   </sheetData>
